--- a/test.xlsx
+++ b/test.xlsx
@@ -1,112 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ju/Desktop/github/api4excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500"/>
+    <workbookView windowWidth="25110" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>SQL执行语句</t>
-    <rPh sb="3" eb="4">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yu'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户登录</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=19900000000&amp;password=111111</t>
   </si>
   <si>
     <t>/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>{'Content-Type':'application/x-www-form-urlencoded'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=19900000000&amp;password=111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>since=1&amp;per_page=10</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,8 +92,166 @@
       <name val="黑体"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,12 +260,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,29 +453,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,7 +820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,36 +1029,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="46.1666666666667" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="163" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="163" customHeight="1" spans="1:17">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -473,302 +1073,324 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="110" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="112" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="113" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="119" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="120" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="122" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="124" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="126" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="127" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="128" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="129" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="130" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="132" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="133" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="134" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="135" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="136" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="137" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="140" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="141" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="143" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="144" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="145" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="147" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="148" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="149" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="150" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="153" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="154" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="155" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="156" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="157" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="158" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="159" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="161" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="162" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="163" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="164" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="165" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="166" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="167" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="168" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="169" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="170" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="171" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="172" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="173" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="174" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="175" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="176" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="177" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="178" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="179" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="180" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="181" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="182" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="183" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="184" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="185" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="186" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="187" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="188" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="189" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="190" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="191" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="192" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="193" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="194" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="195" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="196" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="197" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="198" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="199" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="200" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="201" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="202" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="203" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="204" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="205" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="206" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="207" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="208" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="209" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="210" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="211" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="212" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="213" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="214" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="215" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="216" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="217" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="218" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="219" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="220" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="221" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="222" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="223" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="224" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="225" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="226" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="227" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="228" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="229" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="230" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="231" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="232" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="233" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="234" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="235" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="236" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="237" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="238" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="239" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="240" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="241" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="242" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="243" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="244" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="245" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="246" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="247" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="248" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
+    <row r="53" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="1" customFormat="1"/>
+    <row r="122" s="1" customFormat="1"/>
+    <row r="123" s="1" customFormat="1"/>
+    <row r="124" s="1" customFormat="1"/>
+    <row r="125" s="1" customFormat="1"/>
+    <row r="126" s="1" customFormat="1"/>
+    <row r="127" s="1" customFormat="1"/>
+    <row r="128" s="1" customFormat="1"/>
+    <row r="129" s="1" customFormat="1"/>
+    <row r="130" s="1" customFormat="1"/>
+    <row r="131" s="1" customFormat="1"/>
+    <row r="132" s="1" customFormat="1"/>
+    <row r="133" s="1" customFormat="1"/>
+    <row r="134" s="1" customFormat="1"/>
+    <row r="135" s="1" customFormat="1"/>
+    <row r="136" s="1" customFormat="1"/>
+    <row r="137" s="1" customFormat="1"/>
+    <row r="138" s="1" customFormat="1"/>
+    <row r="139" s="1" customFormat="1"/>
+    <row r="140" s="1" customFormat="1"/>
+    <row r="141" s="1" customFormat="1"/>
+    <row r="142" s="1" customFormat="1"/>
+    <row r="143" s="1" customFormat="1"/>
+    <row r="144" s="1" customFormat="1"/>
+    <row r="145" s="1" customFormat="1"/>
+    <row r="146" s="1" customFormat="1"/>
+    <row r="147" s="1" customFormat="1"/>
+    <row r="148" s="1" customFormat="1"/>
+    <row r="149" s="1" customFormat="1"/>
+    <row r="150" s="1" customFormat="1"/>
+    <row r="151" s="1" customFormat="1"/>
+    <row r="152" s="1" customFormat="1"/>
+    <row r="153" s="1" customFormat="1"/>
+    <row r="154" s="1" customFormat="1"/>
+    <row r="155" s="1" customFormat="1"/>
+    <row r="156" s="1" customFormat="1"/>
+    <row r="157" s="1" customFormat="1"/>
+    <row r="158" s="1" customFormat="1"/>
+    <row r="159" s="1" customFormat="1"/>
+    <row r="160" s="1" customFormat="1"/>
+    <row r="161" s="1" customFormat="1"/>
+    <row r="162" s="1" customFormat="1"/>
+    <row r="163" s="1" customFormat="1"/>
+    <row r="164" s="1" customFormat="1"/>
+    <row r="165" s="1" customFormat="1"/>
+    <row r="166" s="1" customFormat="1"/>
+    <row r="167" s="1" customFormat="1"/>
+    <row r="168" s="1" customFormat="1"/>
+    <row r="169" s="1" customFormat="1"/>
+    <row r="170" s="1" customFormat="1"/>
+    <row r="171" s="1" customFormat="1"/>
+    <row r="172" s="1" customFormat="1"/>
+    <row r="173" s="1" customFormat="1"/>
+    <row r="174" s="1" customFormat="1"/>
+    <row r="175" s="1" customFormat="1"/>
+    <row r="176" s="1" customFormat="1"/>
+    <row r="177" s="1" customFormat="1"/>
+    <row r="178" s="1" customFormat="1"/>
+    <row r="179" s="1" customFormat="1"/>
+    <row r="180" s="1" customFormat="1"/>
+    <row r="181" s="1" customFormat="1"/>
+    <row r="182" s="1" customFormat="1"/>
+    <row r="183" s="1" customFormat="1"/>
+    <row r="184" s="1" customFormat="1"/>
+    <row r="185" s="1" customFormat="1"/>
+    <row r="186" s="1" customFormat="1"/>
+    <row r="187" s="1" customFormat="1"/>
+    <row r="188" s="1" customFormat="1"/>
+    <row r="189" s="1" customFormat="1"/>
+    <row r="190" s="1" customFormat="1"/>
+    <row r="191" s="1" customFormat="1"/>
+    <row r="192" s="1" customFormat="1"/>
+    <row r="193" s="1" customFormat="1"/>
+    <row r="194" s="1" customFormat="1"/>
+    <row r="195" s="1" customFormat="1"/>
+    <row r="196" s="1" customFormat="1"/>
+    <row r="197" s="1" customFormat="1"/>
+    <row r="198" s="1" customFormat="1"/>
+    <row r="199" s="1" customFormat="1"/>
+    <row r="200" s="1" customFormat="1"/>
+    <row r="201" s="1" customFormat="1"/>
+    <row r="202" s="1" customFormat="1"/>
+    <row r="203" s="1" customFormat="1"/>
+    <row r="204" s="1" customFormat="1"/>
+    <row r="205" s="1" customFormat="1"/>
+    <row r="206" s="1" customFormat="1"/>
+    <row r="207" s="1" customFormat="1"/>
+    <row r="208" s="1" customFormat="1"/>
+    <row r="209" s="1" customFormat="1"/>
+    <row r="210" s="1" customFormat="1"/>
+    <row r="211" s="1" customFormat="1"/>
+    <row r="212" s="1" customFormat="1"/>
+    <row r="213" s="1" customFormat="1"/>
+    <row r="214" s="1" customFormat="1"/>
+    <row r="215" s="1" customFormat="1"/>
+    <row r="216" s="1" customFormat="1"/>
+    <row r="217" s="1" customFormat="1"/>
+    <row r="218" s="1" customFormat="1"/>
+    <row r="219" s="1" customFormat="1"/>
+    <row r="220" s="1" customFormat="1"/>
+    <row r="221" s="1" customFormat="1"/>
+    <row r="222" s="1" customFormat="1"/>
+    <row r="223" s="1" customFormat="1"/>
+    <row r="224" s="1" customFormat="1"/>
+    <row r="225" s="1" customFormat="1"/>
+    <row r="226" s="1" customFormat="1"/>
+    <row r="227" s="1" customFormat="1"/>
+    <row r="228" s="1" customFormat="1"/>
+    <row r="229" s="1" customFormat="1"/>
+    <row r="230" s="1" customFormat="1"/>
+    <row r="231" s="1" customFormat="1"/>
+    <row r="232" s="1" customFormat="1"/>
+    <row r="233" s="1" customFormat="1"/>
+    <row r="234" s="1" customFormat="1"/>
+    <row r="235" s="1" customFormat="1"/>
+    <row r="236" s="1" customFormat="1"/>
+    <row r="237" s="1" customFormat="1"/>
+    <row r="238" s="1" customFormat="1"/>
+    <row r="239" s="1" customFormat="1"/>
+    <row r="240" s="1" customFormat="1"/>
+    <row r="241" s="1" customFormat="1"/>
+    <row r="242" s="1" customFormat="1"/>
+    <row r="243" s="1" customFormat="1"/>
+    <row r="244" s="1" customFormat="1"/>
+    <row r="245" s="1" customFormat="1"/>
+    <row r="246" s="1" customFormat="1"/>
+    <row r="247" s="1" customFormat="1"/>
+    <row r="248" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>